--- a/TricentisInsurance/TestDataOfTricentis/TricentisTestCaseData.xlsx
+++ b/TricentisInsurance/TestDataOfTricentis/TricentisTestCaseData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Tc SlNo</t>
   </si>
@@ -93,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +158,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -236,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,6 +276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,19 +452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="125.28515625" customWidth="1"/>
+    <col min="2" max="2" width="125.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -481,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -489,7 +496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -497,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -505,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
@@ -515,23 +522,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="123.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -547,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -555,7 +562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -563,7 +570,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -571,7 +578,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -579,7 +586,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -587,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -595,7 +602,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -603,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -611,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -619,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -627,37 +634,70 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="145.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="145.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -673,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -681,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -689,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -697,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -705,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
